--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Software2project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934FCDA7-804F-4EAB-B7E0-4C2E1898A2AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="432" windowWidth="22740" windowHeight="15552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="435" windowWidth="22740" windowHeight="15555" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
     <sheet name="SprintBacklog2" sheetId="3" r:id="rId2"/>
     <sheet name="SprintBacklog3" sheetId="4" r:id="rId3"/>
+    <sheet name="SprintBacklog4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="80">
   <si>
     <t>Story Type</t>
   </si>
@@ -619,14 +621,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -642,7 +644,15 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -983,24 +993,24 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1026,7 +1036,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>10</v>
       </c>
@@ -1049,7 +1059,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>11</v>
       </c>
@@ -1072,7 +1082,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -1095,7 +1105,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -1118,7 +1128,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1141,7 +1151,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>15</v>
       </c>
@@ -1166,7 +1176,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>16</v>
       </c>
@@ -1191,7 +1201,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>17</v>
       </c>
@@ -1216,7 +1226,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>18</v>
       </c>
@@ -1239,7 +1249,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>19</v>
       </c>
@@ -1262,7 +1272,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>20</v>
       </c>
@@ -1287,12 +1297,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="9" t="s">
         <v>31</v>
@@ -1303,7 +1313,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
@@ -1320,7 +1330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
         <v>33</v>
@@ -1337,7 +1347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -1354,7 +1364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -1371,7 +1381,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
         <v>39</v>
@@ -1388,7 +1398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -1405,7 +1415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1419,10 +1429,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
     </row>
   </sheetData>
@@ -1431,7 +1441,7 @@
     <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1443,23 +1453,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" customWidth="1"/>
-    <col min="6" max="7" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:11" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
@@ -1485,7 +1495,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>10</v>
       </c>
@@ -1510,7 +1520,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>11</v>
       </c>
@@ -1535,7 +1545,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>12</v>
       </c>
@@ -1558,7 +1568,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>13</v>
       </c>
@@ -1581,7 +1591,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>14</v>
       </c>
@@ -1604,7 +1614,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>15</v>
       </c>
@@ -1629,7 +1639,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>16</v>
       </c>
@@ -1654,7 +1664,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>17</v>
       </c>
@@ -1679,7 +1689,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>18</v>
       </c>
@@ -1702,7 +1712,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>20</v>
       </c>
@@ -1727,12 +1737,12 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="34" t="s">
         <v>31</v>
@@ -1747,13 +1757,13 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -1762,13 +1772,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -1777,13 +1787,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -1794,13 +1804,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -1809,13 +1819,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -1826,13 +1836,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -1841,13 +1851,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -1856,13 +1866,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -1871,13 +1881,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -1890,21 +1900,21 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1917,26 +1927,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9D4EE-EF66-4647-A07F-23214E7A01E8}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G16" sqref="A1:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -1959,7 +1969,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -1978,7 +1988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -1997,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2016,7 +2026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2035,7 +2045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2054,7 +2064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2073,7 +2083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2092,7 +2102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2111,7 +2121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2130,7 +2140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2149,7 +2159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2168,23 +2178,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="34" t="s">
         <v>32</v>
@@ -2201,7 +2211,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="34" t="s">
         <v>33</v>
@@ -2218,7 +2228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="34" t="s">
         <v>61</v>
@@ -2235,7 +2245,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="34" t="s">
         <v>38</v>
@@ -2252,7 +2262,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="34" t="s">
         <v>39</v>
@@ -2269,7 +2279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="34" t="s">
         <v>35</v>
@@ -2286,7 +2296,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="34" t="s">
         <v>37</v>
@@ -2303,7 +2313,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="34" t="s">
         <v>36</v>
@@ -2320,7 +2330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="34" t="s">
         <v>40</v>
@@ -2337,21 +2347,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2359,6 +2364,460 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:B2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD0DEDB-7184-4D60-B99A-9BCC4CFD825C}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>14</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>15</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>16</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>17</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>18</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>19</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>20</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -2366,6 +2825,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934FCDA7-804F-4EAB-B7E0-4C2E1898A2AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BDF5B5-E613-4417-99F7-7AD74A96C659}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="435" windowWidth="22740" windowHeight="15555" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="435" windowWidth="22740" windowHeight="15555" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
     <sheet name="SprintBacklog2" sheetId="3" r:id="rId2"/>
     <sheet name="SprintBacklog3" sheetId="4" r:id="rId3"/>
     <sheet name="SprintBacklog4" sheetId="5" r:id="rId4"/>
+    <sheet name="SprintBacklog5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="84">
   <si>
     <t>Story Type</t>
   </si>
@@ -410,6 +411,18 @@
 Mayur:
 Riggs:2
 Carolyn:</t>
+  </si>
+  <si>
+    <t>Week 1(03/19/2018)</t>
+  </si>
+  <si>
+    <t>Week 2(03/26/2018)</t>
+  </si>
+  <si>
+    <t>Week 1(04/02/2018)</t>
+  </si>
+  <si>
+    <t>Week 2(04/09/2018)</t>
   </si>
 </sst>
 </file>
@@ -621,14 +634,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,7 +657,15 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1441,7 +1462,7 @@
     <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1453,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1464,8 +1485,8 @@
     <col min="6" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1737,8 +1758,8 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:11" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1759,11 +1780,11 @@
     </row>
     <row r="15" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -1774,11 +1795,11 @@
     </row>
     <row r="16" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -1789,11 +1810,11 @@
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -1806,11 +1827,11 @@
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -1821,11 +1842,11 @@
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -1838,11 +1859,11 @@
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -1853,11 +1874,11 @@
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -1868,11 +1889,11 @@
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -1883,11 +1904,11 @@
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -1900,21 +1921,21 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1927,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9D4EE-EF66-4647-A07F-23214E7A01E8}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G16" sqref="A1:XFD24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1941,8 +1962,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2178,21 +2199,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
@@ -2357,6 +2378,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2364,14 +2390,9 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2384,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD0DEDB-7184-4D60-B99A-9BCC4CFD825C}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2398,8 +2419,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2420,10 +2441,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
@@ -2635,21 +2656,469 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:B2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB03CE47-C0CE-41ED-B770-BE9613398E6F}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>14</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>15</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>16</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>17</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>18</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>19</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>20</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BDF5B5-E613-4417-99F7-7AD74A96C659}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FE9B86-9A4E-4A43-B09E-EDAAD1B105BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="435" windowWidth="22740" windowHeight="15555" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="89">
   <si>
     <t>Story Type</t>
   </si>
@@ -423,6 +423,41 @@
   </si>
   <si>
     <t>Week 2(04/09/2018)</t>
+  </si>
+  <si>
+    <t>Creating a jar file for the program to be executable in a package and not an ide</t>
+  </si>
+  <si>
+    <t>Cade:6
+Andre:
+Turner:
+Mayur:
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:8
+Andre:
+Turner:
+Mayur:
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:2
+Andre:
+Turner:
+Mayur:
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:2
+Andre:
+Turner:
+Mayur:
+Riggs:2
+Carolyn:</t>
   </si>
 </sst>
 </file>
@@ -548,7 +583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -634,15 +669,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -651,6 +686,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1485,8 +1529,8 @@
     <col min="6" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:11" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1758,8 +1802,8 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:11" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1780,11 +1824,11 @@
     </row>
     <row r="15" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -1795,11 +1839,11 @@
     </row>
     <row r="16" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -1810,11 +1854,11 @@
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -1827,11 +1871,11 @@
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -1842,11 +1886,11 @@
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -1859,11 +1903,11 @@
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -1874,11 +1918,11 @@
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -1889,11 +1933,11 @@
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -1904,11 +1948,11 @@
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -1921,18 +1965,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -1962,8 +2006,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2199,21 +2243,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
@@ -2378,11 +2422,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2390,6 +2429,11 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
@@ -2403,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD0DEDB-7184-4D60-B99A-9BCC4CFD825C}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2419,8 +2463,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2656,43 +2700,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="33" t="s">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
@@ -2709,12 +2751,12 @@
     <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="34" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="36"/>
       <c r="E18" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>4</v>
@@ -2726,12 +2768,12 @@
     <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="34" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="36"/>
       <c r="E19" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>4</v>
@@ -2743,12 +2785,12 @@
     <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="36"/>
       <c r="E20" s="18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>4</v>
@@ -2760,12 +2802,12 @@
     <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="36"/>
       <c r="E21" s="18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>4</v>
@@ -2777,7 +2819,7 @@
     <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="36"/>
@@ -2794,7 +2836,7 @@
     <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="36"/>
@@ -2811,27 +2853,43 @@
     <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="36"/>
       <c r="E24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="16" t="s">
+      <c r="F25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
@@ -2839,6 +2897,7 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
@@ -2851,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB03CE47-C0CE-41ED-B770-BE9613398E6F}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2867,8 +2926,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3104,43 +3163,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="33" t="s">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
@@ -3157,12 +3214,12 @@
     <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="34" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="36"/>
       <c r="E18" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>4</v>
@@ -3174,12 +3231,12 @@
     <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="34" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="36"/>
       <c r="E19" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>4</v>
@@ -3191,12 +3248,12 @@
     <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="36"/>
       <c r="E20" s="18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>4</v>
@@ -3208,12 +3265,12 @@
     <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="36"/>
       <c r="E21" s="18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>4</v>
@@ -3225,7 +3282,7 @@
     <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="36"/>
@@ -3242,7 +3299,7 @@
     <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="36"/>
@@ -3259,34 +3316,51 @@
     <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="36"/>
       <c r="E24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="16" t="s">
+      <c r="F25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_2_SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FE9B86-9A4E-4A43-B09E-EDAAD1B105BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EA9D44-2A4B-4F6E-8E45-90F9A8C36383}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="435" windowWidth="22740" windowHeight="15555" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="87">
   <si>
     <t>Story Type</t>
   </si>
@@ -428,35 +428,19 @@
     <t>Creating a jar file for the program to be executable in a package and not an ide</t>
   </si>
   <si>
-    <t>Cade:6
-Andre:
-Turner:
-Mayur:
-Riggs:
-Carolyn:</t>
-  </si>
-  <si>
-    <t>Cade:8
-Andre:
-Turner:
-Mayur:
-Riggs:
-Carolyn:</t>
-  </si>
-  <si>
-    <t>Cade:2
-Andre:
-Turner:
-Mayur:
-Riggs:
-Carolyn:</t>
-  </si>
-  <si>
     <t>Cade:2
 Andre:
 Turner:
 Mayur:
 Riggs:2
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:10
+Andre:
+Turner:
+Mayur:
+Riggs:
 Carolyn:</t>
   </si>
 </sst>
@@ -663,21 +647,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -686,15 +679,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1070,8 +1054,8 @@
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1362,8 +1346,8 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1529,8 +1513,8 @@
     <col min="6" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1802,21 +1786,21 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -1824,11 +1808,11 @@
     </row>
     <row r="15" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -1839,11 +1823,11 @@
     </row>
     <row r="16" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -1854,11 +1838,11 @@
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -1871,11 +1855,11 @@
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -1886,11 +1870,11 @@
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -1903,11 +1887,11 @@
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -1918,11 +1902,11 @@
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -1933,11 +1917,11 @@
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -1948,11 +1932,11 @@
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -1965,18 +1949,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -2006,8 +1990,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2243,29 +2227,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="18" t="s">
         <v>47</v>
       </c>
@@ -2278,11 +2262,11 @@
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="18" t="s">
         <v>47</v>
       </c>
@@ -2295,11 +2279,11 @@
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="18" t="s">
         <v>49</v>
       </c>
@@ -2312,11 +2296,11 @@
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="18" t="s">
         <v>47</v>
       </c>
@@ -2329,11 +2313,11 @@
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="18" t="s">
         <v>56</v>
       </c>
@@ -2346,11 +2330,11 @@
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="18" t="s">
         <v>49</v>
       </c>
@@ -2363,11 +2347,11 @@
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="18" t="s">
         <v>49</v>
       </c>
@@ -2380,11 +2364,11 @@
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="18" t="s">
         <v>49</v>
       </c>
@@ -2397,11 +2381,11 @@
     </row>
     <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="18" t="s">
         <v>48</v>
       </c>
@@ -2422,6 +2406,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2429,11 +2418,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
@@ -2450,7 +2434,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2463,8 +2447,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2701,43 +2685,43 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="38"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="16" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="18" t="s">
         <v>47</v>
       </c>
@@ -2750,11 +2734,11 @@
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="18" t="s">
         <v>47</v>
       </c>
@@ -2767,11 +2751,11 @@
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="18" t="s">
         <v>49</v>
       </c>
@@ -2784,11 +2768,11 @@
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="18" t="s">
         <v>47</v>
       </c>
@@ -2801,11 +2785,11 @@
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="18" t="s">
         <v>56</v>
       </c>
@@ -2818,11 +2802,11 @@
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="18" t="s">
         <v>49</v>
       </c>
@@ -2835,11 +2819,11 @@
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="18" t="s">
         <v>49</v>
       </c>
@@ -2852,11 +2836,11 @@
     </row>
     <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="18" t="s">
         <v>49</v>
       </c>
@@ -2869,11 +2853,11 @@
     </row>
     <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="18" t="s">
         <v>48</v>
       </c>
@@ -2913,7 +2897,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2926,8 +2910,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3164,43 +3148,43 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="38"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="18" t="s">
         <v>47</v>
       </c>
@@ -3213,11 +3197,11 @@
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="18" t="s">
         <v>47</v>
       </c>
@@ -3230,11 +3214,11 @@
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="18" t="s">
         <v>49</v>
       </c>
@@ -3247,11 +3231,11 @@
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="18" t="s">
         <v>47</v>
       </c>
@@ -3264,11 +3248,11 @@
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="18" t="s">
         <v>56</v>
       </c>
@@ -3281,11 +3265,11 @@
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="18" t="s">
         <v>49</v>
       </c>
@@ -3298,11 +3282,11 @@
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="18" t="s">
         <v>49</v>
       </c>
@@ -3315,11 +3299,11 @@
     </row>
     <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="18" t="s">
         <v>49</v>
       </c>
@@ -3332,11 +3316,11 @@
     </row>
     <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="18" t="s">
         <v>48</v>
       </c>
